--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:33:44+00:00</t>
+    <t>2025-10-17T12:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:45:54+00:00</t>
+    <t>2025-10-17T12:47:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:47:41+00:00</t>
+    <t>2025-10-17T13:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:37:49+00:00</t>
+    <t>2025-10-23T07:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T07:38:48+00:00</t>
+    <t>2025-10-23T09:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:27:39+00:00</t>
+    <t>2025-10-23T10:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T10:03:30+00:00</t>
+    <t>2025-10-23T11:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T11:11:53+00:00</t>
+    <t>2025-10-23T12:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:03:29+00:00</t>
+    <t>2025-10-23T12:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:14:06+00:00</t>
+    <t>2025-10-23T12:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:40:30+00:00</t>
+    <t>2025-10-23T12:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:50:40+00:00</t>
+    <t>2025-10-23T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T13:57:04+00:00</t>
+    <t>2025-10-23T15:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -327,6 +327,16 @@
   </si>
   <si>
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel.</t>
+  </si>
+  <si>
+    <t>Professionnel.PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePriseCharge
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe PersonnePriseCharge</t>
   </si>
 </sst>
 </file>
@@ -631,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -650,7 +660,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1685,6 +1695,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -329,6 +329,46 @@
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel.</t>
   </si>
   <si>
+    <t>Professionnel.ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t>Professionnel.NoteLiaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/NoteLiaison
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe NoteLiaison</t>
+  </si>
+  <si>
+    <t>Professionnel.Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Observation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Observation</t>
+  </si>
+  <si>
+    <t>Professionnel.AutorisationExercice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/AutorisationExercice
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe AutorisationExercice</t>
+  </si>
+  <si>
     <t>Professionnel.PersonnePriseCharge</t>
   </si>
   <si>
@@ -337,6 +377,26 @@
   </si>
   <si>
     <t>Lien vers la classe PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t>Professionnel.Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Agenda
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Agenda</t>
+  </si>
+  <si>
+    <t>Professionnel.RendezVous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/RendezVous
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe RendezVous</t>
   </si>
 </sst>
 </file>
@@ -641,7 +701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -660,7 +720,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1795,6 +1855,606 @@
         <v>71</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Professionnel.xlsx
+++ b/ML/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
